--- a/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>12516</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15942</t>
+          <t>22332</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>13385</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10084</t>
+          <t>11528</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13337</t>
+          <t>9997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13008</t>
+          <t>22272</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13840</t>
+          <t>8013</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19672</t>
+          <t>10356</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10559</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14383</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9702</t>
+          <t>736</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8588</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12516</t>
+          <t>7247</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22332</t>
+          <t>19628</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13385</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11528</t>
+          <t>10303</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9997</t>
+          <t>8895</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22272</t>
+          <t>19188</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8013</t>
+          <t>13443</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10356</t>
+          <t>13125</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>11597</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>17033</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3367</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Lead.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7247</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19628</t>
+          <t>14269</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10303</t>
+          <t>11368</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8895</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19188</t>
+          <t>12867</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13443</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13125</t>
+          <t>26754</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11597</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17033</t>
+          <t>10498</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>781</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
